--- a/3/1107/3_1107_SS.xlsx
+++ b/3/1107/3_1107_SS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matlab\Documents\ansys\ansys-management-3dPrinter\3\1107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39572997-80FD-46CA-8BDA-CF241866A4C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE928579-5AE8-48D3-B47F-B99B26AA691F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,16 @@
     <sheet name="3_110_epo3" sheetId="5" r:id="rId5"/>
     <sheet name="3_110_epo4" sheetId="6" r:id="rId6"/>
     <sheet name="3_110_epo5" sheetId="7" r:id="rId7"/>
+    <sheet name="3_110_epo6.1" sheetId="8" r:id="rId8"/>
+    <sheet name="3_110_epo6.2" sheetId="9" r:id="rId9"/>
+    <sheet name="3_110_epo6.3" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>sheet_name</t>
   </si>
@@ -50,6 +53,15 @@
   </si>
   <si>
     <t>3_110_epo5</t>
+  </si>
+  <si>
+    <t>3_110_epo6.1</t>
+  </si>
+  <si>
+    <t>3_110_epo6.2</t>
+  </si>
+  <si>
+    <t>3_110_epo6.3</t>
   </si>
   <si>
     <t>TIME</t>
@@ -83,6 +95,15 @@
   </si>
   <si>
     <t>3\1107\epoxy=5\3_110_epo5.csv</t>
+  </si>
+  <si>
+    <t>3\1107\epoxy=6.1\3_110_epo6.1.csv</t>
+  </si>
+  <si>
+    <t>3\1107\epoxy=6.2\3_110_epo6.2.csv</t>
+  </si>
+  <si>
+    <t>3\1107\epoxy=6.3\3_110_epo6.3.csv</t>
   </si>
 </sst>
 </file>
@@ -147,12 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -194,7 +214,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>3_110_epo1</a:t>
             </a:r>
           </a:p>
@@ -840,7 +859,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-315C-402C-BE52-D71E9C1BE4A4}"/>
+              <c16:uniqueId val="{00000000-2F33-4291-947A-90A5728B734A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -873,7 +892,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -907,7 +925,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -1057,7 +1074,2953 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E989-4221-83CC-E0481B74105C}"/>
+              <c16:uniqueId val="{00000000-D824-4D36-8BC0-16937F179B46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3_110_epo6.1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.1'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.65E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3499999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6499999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1499999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.45E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.1999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.3499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.6500000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.8000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.9500000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.2499999999999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.3999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.5499999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.6999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.8500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.4500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.7499999999999983E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.8999999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.005E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.035E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.065E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.095E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.155E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1849999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2449999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.26E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.3050000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.455E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.485E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.1'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.1337388571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26747714285714291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40121714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53495571428571431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66869428571428569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80243285714285706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93617285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0699114285714291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2036500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3373885714285709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4711285714285709</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6048714285714289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8723428571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0060857142857138</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1398285714285721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2735571428571428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4073000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5410428571428572</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6747714285714288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8085142857142862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9422571428571431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2097285714285722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3434714285714291</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.477214285714286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.610957142857143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7446857142857142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.878428571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0121714285714276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1459000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2796428571428571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.413385714285714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.547128571428571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6808571428571426</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8146000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9483428571428574</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0820857142857143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.215814285714286</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3495571428571429</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.6170285714285706</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7507714285714284</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8845142857142854</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0182571428571432</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.1519857142857148</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.2857285714285709</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.4194714285714287</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.5531999999999986</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.6869428571428573</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.8206857142857142</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9544285714285712</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0881571428571428</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.2219000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.3556428571428567</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.4893857142857136</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.6231142857142862</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7568571428571431</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0132142857142856</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.1199428571428562</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.1854285714285719</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.173228571428572</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.9683142857142846</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.47619714285714282</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.768142857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.7324142857142861E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7176E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7428571428571429E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.7681142857142861E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7933714285714289E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.818628571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8438857142857149E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8691428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.8943999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9196571428571431E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.9449285714285711E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9701857142857139E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9954428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.0206999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0459571428571431E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.071214285714286E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0964714285714281E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.1217285714285709E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.1469857142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.1722571428571431E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.197514285714286E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2227714285714292E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.248028571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2732857142857141E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.298542857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3238000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.349057142857143E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.3743142857142858E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.399571428571429E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.424842857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4500999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.475357142857143E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.5006142857142859E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5258714285714291E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0DF-46C6-B09E-60474023E8D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.1'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.1'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1337388571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26747714285714291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40121714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53495571428571431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66869428571428569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80243285714285706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93617285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0699114285714291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06F2-49EA-9595-73F6C2C88905}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3_110_epo6.2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.2'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.65E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3499999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6499999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1499999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.45E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.1999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.3499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.6500000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.8000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.9500000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.2499999999999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.3999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.5499999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.6999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.8500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.4500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.7499999999999983E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.8999999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.005E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.035E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.065E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.095E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.155E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1849999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2449999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.26E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.3050000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.455E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.485E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.2'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.30148285714285722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60296428571428573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90444714285714289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.205928571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.507414285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1103714285714279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4118571428571429</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7133428571428571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0148285714285721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3163</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6177857142857142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9192714285714279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2207571428571429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5222285714285713</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8237142857142858</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1252000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4266857142857141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7281571428571434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0296428571428571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3311285714285708</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6326142857142862</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9340999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2355714285714283</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.5370571428571438</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.8385428571428566</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1400285714285712</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.4299142857142861</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7020285714285723</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.9156571428571425</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.5766714285714283</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1777071428571431</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.311042857142858E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.8627142857142862E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.8568714285714292E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9668999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.0770857142857142E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.1872857142857137E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.297471428571429E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.4076571428571434E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5178571428571429E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6280428571428573E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7382428571428568E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.8484285714285721E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.9586142857142856E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.068814285714286E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.1789999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.2892E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.3993857142857144E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.5095714285714288E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6197714285714283E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.7299571428571427E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.8401571428571422E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9503428571428584E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.060528571428571E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.1707285714285706E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.2809142857142859E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.3911142857142854E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.5013000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.6115000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.7216857142857146E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.831871428571429E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.9420714285714294E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.0522571428571429E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.1624571428571433E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.2726428571428569E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.3828285714285713E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.4930285714285708E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.6032142857142852E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.7134142857142847E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.8236E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.9337857142857144E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.0439857142857139E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.1541714285714283E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.2643714285714279E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.374557142857144E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.4847428571428567E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.5949428571428579E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.7051285714285706E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.8153285714285719E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9255142857142845E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.0357142857142858E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.1459000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.2560857142857146E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.3662857142857141E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.4764714285714285E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.5866714285714281E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.6968571428571442E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.8070428571428569E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9172428571428582E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0027428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.013762857142857E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.024781428571428E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.03331E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0443028571428569E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0552957142857139E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0662885714285711E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0772800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0882728571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.099265714285714E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3500-4542-BEC6-25A0B442C514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.2'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.2'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.30148285714285722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60296428571428573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90444714285714289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.205928571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.507414285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1103714285714279</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4118571428571429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9050-439B-A8AB-8638992FCBAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>3_110_epo6.3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.3'!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.65E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3499999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6499999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.9500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.1499999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.45E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.1999999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.3499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.6500000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.8000000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.9500000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.2499999999999987E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.3999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.5499999999999986E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.6999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.8500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.4500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.7499999999999983E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.8999999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.005E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.035E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.065E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.095E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.155E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.1849999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2149999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2449999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.26E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.3050000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3350000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3950000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4250000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.455E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.485E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.3'!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.1337388571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26747714285714291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40121714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53495571428571431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66869428571428569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80243285714285706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93617285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0699114285714291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2036500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3373885714285709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4711285714285709</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6048714285714289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8723428571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0060857142857138</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1398285714285721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2735571428571428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4073000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5410428571428572</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6747714285714288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8085142857142862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9422571428571431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.2097285714285722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3434714285714291</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.477214285714286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.610957142857143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7446857142857142</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.878428571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0121714285714276</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1459000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2796428571428571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.413385714285714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.547128571428571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.6808571428571426</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8146000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.9483428571428574</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0820857142857143</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.215814285714286</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.3495571428571429</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.6170285714285706</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.7507714285714284</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8845142857142854</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0182571428571432</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.1519857142857148</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.2857285714285709</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.4194714285714287</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.5531999999999986</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.6869428571428573</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.8206857142857142</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9544285714285712</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0881571428571428</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.2219000000000007</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.3556428571428567</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.4893857142857136</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.6231142857142862</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7568571428571431</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.8906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0243285714285708</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.1580714285714286</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.2918142857142865</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.4255571428571425</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.5592857142857142</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.6930285714285702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.826771428571428</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.9605142857142859</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.0942428571428575</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.2279857142857136</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.3617285714285714</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.495457142857143</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.6291999999999991</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.7629428571428569</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.8966857142857148</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.03041428571429</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.164157142857141</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.2979</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.43162857142857</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.56537142857143</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.699114285714289</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10.83285714285714</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10.96658571428571</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11.10032857142857</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.234071428571429</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.367814285714291</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11.50154285714286</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11.635285714285709</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11.769028571428571</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11.902757142857141</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.0365</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.17024285714286</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12.303985714285711</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>12.437714285714289</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>12.57145714285714</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>12.7052</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>12.838942857142859</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>12.972671428571431</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.10641428571429</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.240157142857139</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.373885714285709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99FA-457C-84E0-F275CE28EF6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="10"/>
+        <c:axId val="20"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="20"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="20"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.3'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999988E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999991E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999987E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3_110_epo6.3'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1337388571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26747714285714291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40121714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53495571428571431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66869428571428569</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80243285714285706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93617285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0699114285714291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96D2-42A2-AD80-C84A65699DF5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1179,7 +4142,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -1273,7 +4235,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2EB3-4D04-8824-72B105E6AF5A}"/>
+              <c16:uniqueId val="{00000000-2159-4C51-9477-60F7F61E6BC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1306,7 +4268,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -1340,7 +4301,6 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -2042,7 +5002,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05B7-4D1C-AB33-9582947CEB32}"/>
+              <c16:uniqueId val="{00000000-6932-4D27-88DF-57911A5E287C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2257,7 +5217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-332B-4621-8276-46A8F2332F1B}"/>
+              <c16:uniqueId val="{00000000-4CCC-4109-B7EA-38A996E4C0A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3024,7 +5984,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AAFE-4CE4-BEBC-39808B1DD329}"/>
+              <c16:uniqueId val="{00000000-3664-47FD-A475-790C1F6C880D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3239,7 +6199,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D72-4ECD-9F77-A149ED65C5D0}"/>
+              <c16:uniqueId val="{00000000-DE31-4F91-A924-B3A290B65D7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4006,7 +6966,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-282F-408E-B05A-06C11263778A}"/>
+              <c16:uniqueId val="{00000000-62A9-4F5D-905A-69B5AF792978}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4221,7 +7181,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B076-47A2-8043-C18E020677DC}"/>
+              <c16:uniqueId val="{00000000-45D0-48BE-993C-3F12F0263277}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4988,7 +7948,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC7C-4F8A-8F73-B40D48AA87F0}"/>
+              <c16:uniqueId val="{00000000-C972-4B00-8635-695150DCBB28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5421,6 +8381,207 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5714,20 +8875,1466 @@
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B2">
+        <v>9.36172</v>
+      </c>
+      <c r="C2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D2">
+        <v>0.1337388571428571</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>13.373885714285709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.03</v>
+      </c>
+      <c r="B3">
+        <v>18.723400000000002</v>
+      </c>
+      <c r="C3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D3">
+        <v>0.26747714285714291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>891.59288888888887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B4">
+        <v>28.0852</v>
+      </c>
+      <c r="C4">
+        <v>4.4999999999999988E-4</v>
+      </c>
+      <c r="D4">
+        <v>0.40121714285714288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.06</v>
+      </c>
+      <c r="B5">
+        <v>37.446899999999999</v>
+      </c>
+      <c r="C5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D5">
+        <v>0.53495571428571431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B6">
+        <v>46.808599999999998</v>
+      </c>
+      <c r="C6">
+        <v>7.4999999999999991E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.66869428571428569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.09</v>
+      </c>
+      <c r="B7">
+        <v>56.170299999999997</v>
+      </c>
+      <c r="C7">
+        <v>8.9999999999999987E-4</v>
+      </c>
+      <c r="D7">
+        <v>0.80243285714285706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.105</v>
+      </c>
+      <c r="B8">
+        <v>65.5321</v>
+      </c>
+      <c r="C8">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.93617285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0.12</v>
+      </c>
+      <c r="B9">
+        <v>74.893799999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.0699114285714291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B10">
+        <v>84.255499999999998</v>
+      </c>
+      <c r="C10">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.2036500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.15</v>
+      </c>
+      <c r="B11">
+        <v>93.617199999999997</v>
+      </c>
+      <c r="C11">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.3373885714285709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="B12">
+        <v>102.979</v>
+      </c>
+      <c r="C12">
+        <v>1.65E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.4711285714285709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0.18</v>
+      </c>
+      <c r="B13">
+        <v>112.34099999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.6048714285714289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="B14">
+        <v>121.702</v>
+      </c>
+      <c r="C14">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.7385999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>0.21</v>
+      </c>
+      <c r="B15">
+        <v>131.06399999999999</v>
+      </c>
+      <c r="C15">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.8723428571428571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B16">
+        <v>140.42599999999999</v>
+      </c>
+      <c r="C16">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="D16">
+        <v>2.0060857142857138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>0.24</v>
+      </c>
+      <c r="B17">
+        <v>149.78800000000001</v>
+      </c>
+      <c r="C17">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D17">
+        <v>2.1398285714285721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>0.255</v>
+      </c>
+      <c r="B18">
+        <v>159.149</v>
+      </c>
+      <c r="C18">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="D18">
+        <v>2.2735571428571428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>0.27</v>
+      </c>
+      <c r="B19">
+        <v>168.511</v>
+      </c>
+      <c r="C19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>2.4073000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="B20">
+        <v>177.87299999999999</v>
+      </c>
+      <c r="C20">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>2.5410428571428572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>0.3</v>
+      </c>
+      <c r="B21">
+        <v>187.23400000000001</v>
+      </c>
+      <c r="C21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>2.6747714285714288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0.315</v>
+      </c>
+      <c r="B22">
+        <v>196.596</v>
+      </c>
+      <c r="C22">
+        <v>3.15E-3</v>
+      </c>
+      <c r="D22">
+        <v>2.8085142857142862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0.33</v>
+      </c>
+      <c r="B23">
+        <v>205.958</v>
+      </c>
+      <c r="C23">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D23">
+        <v>2.9422571428571431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="B24">
+        <v>215.32</v>
+      </c>
+      <c r="C24">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>3.0760000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>0.36</v>
+      </c>
+      <c r="B25">
+        <v>224.68100000000001</v>
+      </c>
+      <c r="C25">
+        <v>3.599999999999999E-3</v>
+      </c>
+      <c r="D25">
+        <v>3.2097285714285722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>0.375</v>
+      </c>
+      <c r="B26">
+        <v>234.04300000000001</v>
+      </c>
+      <c r="C26">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="D26">
+        <v>3.3434714285714291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>0.39</v>
+      </c>
+      <c r="B27">
+        <v>243.405</v>
+      </c>
+      <c r="C27">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D27">
+        <v>3.477214285714286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="B28">
+        <v>252.767</v>
+      </c>
+      <c r="C28">
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="D28">
+        <v>3.610957142857143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>0.42</v>
+      </c>
+      <c r="B29">
+        <v>262.12799999999999</v>
+      </c>
+      <c r="C29">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D29">
+        <v>3.7446857142857142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>0.435</v>
+      </c>
+      <c r="B30">
+        <v>271.49</v>
+      </c>
+      <c r="C30">
+        <v>4.3499999999999997E-3</v>
+      </c>
+      <c r="D30">
+        <v>3.878428571428572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>0.45</v>
+      </c>
+      <c r="B31">
+        <v>280.85199999999998</v>
+      </c>
+      <c r="C31">
+        <v>4.5000000000000014E-3</v>
+      </c>
+      <c r="D31">
+        <v>4.0121714285714276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="B32">
+        <v>290.21300000000002</v>
+      </c>
+      <c r="C32">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="D32">
+        <v>4.1459000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>0.48</v>
+      </c>
+      <c r="B33">
+        <v>299.57499999999999</v>
+      </c>
+      <c r="C33">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D33">
+        <v>4.2796428571428571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>0.495</v>
+      </c>
+      <c r="B34">
+        <v>308.93700000000001</v>
+      </c>
+      <c r="C34">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="D34">
+        <v>4.413385714285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>0.51</v>
+      </c>
+      <c r="B35">
+        <v>318.29899999999998</v>
+      </c>
+      <c r="C35">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D35">
+        <v>4.547128571428571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B36">
+        <v>327.66000000000003</v>
+      </c>
+      <c r="C36">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="D36">
+        <v>4.6808571428571426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>0.54</v>
+      </c>
+      <c r="B37">
+        <v>337.02199999999999</v>
+      </c>
+      <c r="C37">
+        <v>5.3999999999999994E-3</v>
+      </c>
+      <c r="D37">
+        <v>4.8146000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="B38">
+        <v>346.38400000000001</v>
+      </c>
+      <c r="C38">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="D38">
+        <v>4.9483428571428574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B39">
+        <v>355.74599999999998</v>
+      </c>
+      <c r="C39">
+        <v>5.6999999999999993E-3</v>
+      </c>
+      <c r="D39">
+        <v>5.0820857142857143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="B40">
+        <v>365.10700000000003</v>
+      </c>
+      <c r="C40">
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="D40">
+        <v>5.215814285714286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>0.6</v>
+      </c>
+      <c r="B41">
+        <v>374.46899999999999</v>
+      </c>
+      <c r="C41">
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="D41">
+        <v>5.3495571428571429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="B42">
+        <v>383.83100000000002</v>
+      </c>
+      <c r="C42">
+        <v>6.1499999999999992E-3</v>
+      </c>
+      <c r="D42">
+        <v>5.4832999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>0.63</v>
+      </c>
+      <c r="B43">
+        <v>393.19200000000001</v>
+      </c>
+      <c r="C43">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D43">
+        <v>5.6170285714285706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="B44">
+        <v>402.55399999999997</v>
+      </c>
+      <c r="C44">
+        <v>6.45E-3</v>
+      </c>
+      <c r="D44">
+        <v>5.7507714285714284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>0.66</v>
+      </c>
+      <c r="B45">
+        <v>411.916</v>
+      </c>
+      <c r="C45">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D45">
+        <v>5.8845142857142854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B46">
+        <v>421.27800000000002</v>
+      </c>
+      <c r="C46">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="D46">
+        <v>6.0182571428571432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>0.69</v>
+      </c>
+      <c r="B47">
+        <v>430.63900000000001</v>
+      </c>
+      <c r="C47">
+        <v>6.899999999999999E-3</v>
+      </c>
+      <c r="D47">
+        <v>6.1519857142857148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="B48">
+        <v>440.00099999999998</v>
+      </c>
+      <c r="C48">
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="D48">
+        <v>6.2857285714285709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>0.72</v>
+      </c>
+      <c r="B49">
+        <v>449.363</v>
+      </c>
+      <c r="C49">
+        <v>7.1999999999999989E-3</v>
+      </c>
+      <c r="D49">
+        <v>6.4194714285714287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="B50">
+        <v>458.72399999999999</v>
+      </c>
+      <c r="C50">
+        <v>7.3499999999999998E-3</v>
+      </c>
+      <c r="D50">
+        <v>6.5531999999999986</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>0.75</v>
+      </c>
+      <c r="B51">
+        <v>468.08600000000001</v>
+      </c>
+      <c r="C51">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D51">
+        <v>6.6869428571428573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="B52">
+        <v>477.44799999999998</v>
+      </c>
+      <c r="C52">
+        <v>7.6500000000000014E-3</v>
+      </c>
+      <c r="D52">
+        <v>6.8206857142857142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>0.78</v>
+      </c>
+      <c r="B53">
+        <v>486.81</v>
+      </c>
+      <c r="C53">
+        <v>7.8000000000000014E-3</v>
+      </c>
+      <c r="D53">
+        <v>6.9544285714285712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="B54">
+        <v>496.17099999999999</v>
+      </c>
+      <c r="C54">
+        <v>7.9500000000000005E-3</v>
+      </c>
+      <c r="D54">
+        <v>7.0881571428571428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>0.81</v>
+      </c>
+      <c r="B55">
+        <v>505.53300000000002</v>
+      </c>
+      <c r="C55">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D55">
+        <v>7.2219000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="B56">
+        <v>514.89499999999998</v>
+      </c>
+      <c r="C56">
+        <v>8.2499999999999987E-3</v>
+      </c>
+      <c r="D56">
+        <v>7.3556428571428567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>0.84</v>
+      </c>
+      <c r="B57">
+        <v>524.25699999999995</v>
+      </c>
+      <c r="C57">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D57">
+        <v>7.4893857142857136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="B58">
+        <v>533.61800000000005</v>
+      </c>
+      <c r="C58">
+        <v>8.5499999999999986E-3</v>
+      </c>
+      <c r="D58">
+        <v>7.6231142857142862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>0.87</v>
+      </c>
+      <c r="B59">
+        <v>542.98</v>
+      </c>
+      <c r="C59">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D59">
+        <v>7.7568571428571431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="B60">
+        <v>552.34199999999998</v>
+      </c>
+      <c r="C60">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="D60">
+        <v>7.8906000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>0.9</v>
+      </c>
+      <c r="B61">
+        <v>561.70299999999997</v>
+      </c>
+      <c r="C61">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="D61">
+        <v>8.0243285714285708</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="B62">
+        <v>571.06500000000005</v>
+      </c>
+      <c r="C62">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="D62">
+        <v>8.1580714285714286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>0.93</v>
+      </c>
+      <c r="B63">
+        <v>580.42700000000002</v>
+      </c>
+      <c r="C63">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="D63">
+        <v>8.2918142857142865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="B64">
+        <v>589.78899999999999</v>
+      </c>
+      <c r="C64">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="D64">
+        <v>8.4255571428571425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>0.96</v>
+      </c>
+      <c r="B65">
+        <v>599.15</v>
+      </c>
+      <c r="C65">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D65">
+        <v>8.5592857142857142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B66">
+        <v>608.51199999999994</v>
+      </c>
+      <c r="C66">
+        <v>9.7499999999999983E-3</v>
+      </c>
+      <c r="D66">
+        <v>8.6930285714285702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>0.99</v>
+      </c>
+      <c r="B67">
+        <v>617.87400000000002</v>
+      </c>
+      <c r="C67">
+        <v>9.8999999999999991E-3</v>
+      </c>
+      <c r="D67">
+        <v>8.826771428571428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="B68">
+        <v>627.23599999999999</v>
+      </c>
+      <c r="C68">
+        <v>1.005E-2</v>
+      </c>
+      <c r="D68">
+        <v>8.9605142857142859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>1.02</v>
+      </c>
+      <c r="B69">
+        <v>636.59699999999998</v>
+      </c>
+      <c r="C69">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D69">
+        <v>9.0942428571428575</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="B70">
+        <v>645.95899999999995</v>
+      </c>
+      <c r="C70">
+        <v>1.035E-2</v>
+      </c>
+      <c r="D70">
+        <v>9.2279857142857136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>1.05</v>
+      </c>
+      <c r="B71">
+        <v>655.32100000000003</v>
+      </c>
+      <c r="C71">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D71">
+        <v>9.3617285714285714</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="B72">
+        <v>664.68200000000002</v>
+      </c>
+      <c r="C72">
+        <v>1.065E-2</v>
+      </c>
+      <c r="D72">
+        <v>9.495457142857143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>1.08</v>
+      </c>
+      <c r="B73">
+        <v>674.04399999999998</v>
+      </c>
+      <c r="C73">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D73">
+        <v>9.6291999999999991</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>1.095</v>
+      </c>
+      <c r="B74">
+        <v>683.40599999999995</v>
+      </c>
+      <c r="C74">
+        <v>1.095E-2</v>
+      </c>
+      <c r="D74">
+        <v>9.7629428571428569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B75">
+        <v>692.76800000000003</v>
+      </c>
+      <c r="C75">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D75">
+        <v>9.8966857142857148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1.125</v>
+      </c>
+      <c r="B76">
+        <v>702.12900000000002</v>
+      </c>
+      <c r="C76">
+        <v>1.125E-2</v>
+      </c>
+      <c r="D76">
+        <v>10.03041428571429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B77">
+        <v>711.49099999999999</v>
+      </c>
+      <c r="C77">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D77">
+        <v>10.164157142857141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1.155</v>
+      </c>
+      <c r="B78">
+        <v>720.85299999999995</v>
+      </c>
+      <c r="C78">
+        <v>1.155E-2</v>
+      </c>
+      <c r="D78">
+        <v>10.2979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1.17</v>
+      </c>
+      <c r="B79">
+        <v>730.21400000000006</v>
+      </c>
+      <c r="C79">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D79">
+        <v>10.43162857142857</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="B80">
+        <v>739.57600000000002</v>
+      </c>
+      <c r="C80">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="D80">
+        <v>10.56537142857143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1.2</v>
+      </c>
+      <c r="B81">
+        <v>748.93799999999999</v>
+      </c>
+      <c r="C81">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D81">
+        <v>10.699114285714289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="B82">
+        <v>758.3</v>
+      </c>
+      <c r="C82">
+        <v>1.2149999999999999E-2</v>
+      </c>
+      <c r="D82">
+        <v>10.83285714285714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1.23</v>
+      </c>
+      <c r="B83">
+        <v>767.66099999999994</v>
+      </c>
+      <c r="C83">
+        <v>1.23E-2</v>
+      </c>
+      <c r="D83">
+        <v>10.96658571428571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="B84">
+        <v>777.02300000000002</v>
+      </c>
+      <c r="C84">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="D84">
+        <v>11.10032857142857</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1.26</v>
+      </c>
+      <c r="B85">
+        <v>786.38499999999999</v>
+      </c>
+      <c r="C85">
+        <v>1.26E-2</v>
+      </c>
+      <c r="D85">
+        <v>11.234071428571429</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="B86">
+        <v>795.74699999999996</v>
+      </c>
+      <c r="C86">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="D86">
+        <v>11.367814285714291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1.29</v>
+      </c>
+      <c r="B87">
+        <v>805.10799999999995</v>
+      </c>
+      <c r="C87">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D87">
+        <v>11.50154285714286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="B88">
+        <v>814.47</v>
+      </c>
+      <c r="C88">
+        <v>1.3050000000000001E-2</v>
+      </c>
+      <c r="D88">
+        <v>11.635285714285709</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1.32</v>
+      </c>
+      <c r="B89">
+        <v>823.83199999999999</v>
+      </c>
+      <c r="C89">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D89">
+        <v>11.769028571428571</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1.335</v>
+      </c>
+      <c r="B90">
+        <v>833.19299999999998</v>
+      </c>
+      <c r="C90">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="D90">
+        <v>11.902757142857141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1.35</v>
+      </c>
+      <c r="B91">
+        <v>842.55499999999995</v>
+      </c>
+      <c r="C91">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D91">
+        <v>12.0365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1.365</v>
+      </c>
+      <c r="B92">
+        <v>851.91700000000003</v>
+      </c>
+      <c r="C92">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="D92">
+        <v>12.17024285714286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1.38</v>
+      </c>
+      <c r="B93">
+        <v>861.279</v>
+      </c>
+      <c r="C93">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D93">
+        <v>12.303985714285711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1.395</v>
+      </c>
+      <c r="B94">
+        <v>870.64</v>
+      </c>
+      <c r="C94">
+        <v>1.3950000000000001E-2</v>
+      </c>
+      <c r="D94">
+        <v>12.437714285714289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1.41</v>
+      </c>
+      <c r="B95">
+        <v>880.00199999999995</v>
+      </c>
+      <c r="C95">
+        <v>1.41E-2</v>
+      </c>
+      <c r="D95">
+        <v>12.57145714285714</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1.425</v>
+      </c>
+      <c r="B96">
+        <v>889.36400000000003</v>
+      </c>
+      <c r="C96">
+        <v>1.4250000000000001E-2</v>
+      </c>
+      <c r="D96">
+        <v>12.7052</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>1.44</v>
+      </c>
+      <c r="B97">
+        <v>898.726</v>
+      </c>
+      <c r="C97">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D97">
+        <v>12.838942857142859</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="B98">
+        <v>908.08699999999999</v>
+      </c>
+      <c r="C98">
+        <v>1.455E-2</v>
+      </c>
+      <c r="D98">
+        <v>12.972671428571431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>1.47</v>
+      </c>
+      <c r="B99">
+        <v>917.44899999999996</v>
+      </c>
+      <c r="C99">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D99">
+        <v>13.10641428571429</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="B100">
+        <v>926.81100000000004</v>
+      </c>
+      <c r="C100">
+        <v>1.485E-2</v>
+      </c>
+      <c r="D100">
+        <v>13.240157142857139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>1.5</v>
+      </c>
+      <c r="B101">
+        <v>936.17200000000003</v>
+      </c>
+      <c r="C101">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D101">
+        <v>13.373885714285709</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -5745,10 +10352,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>5.7662571428571434</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>896.85980952380964</v>
       </c>
     </row>
@@ -5756,10 +10363,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>6.7714142857142861</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>2021.214444444445</v>
       </c>
     </row>
@@ -5767,10 +10374,10 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>13.30617142857143</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>896.85980952380964</v>
       </c>
     </row>
@@ -5778,10 +10385,10 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>5.7678857142857147</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>896.85980952380964</v>
       </c>
     </row>
@@ -5789,17 +10396,49 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>5.9739571428571434</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>897.15441269841267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>8.1854285714285719</v>
+      </c>
+      <c r="C7">
+        <v>891.59288888888887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>8.9156571428571425</v>
+      </c>
+      <c r="C8">
+        <v>2009.882063492063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>13.373885714285709</v>
+      </c>
+      <c r="C9">
+        <v>891.59288888888887</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5813,19 +10452,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -5842,7 +10481,7 @@
         <v>0.13452900000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>5.7662571428571434</v>
@@ -5862,7 +10501,7 @@
         <v>0.26905857142857142</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>896.85980952380964</v>
@@ -7257,19 +11896,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -7286,7 +11925,7 @@
         <v>0.30318285714285709</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>6.7714142857142861</v>
@@ -7306,7 +11945,7 @@
         <v>0.60636571428571429</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>2021.214444444445</v>
@@ -8701,19 +13340,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -8730,7 +13369,7 @@
         <v>0.13452900000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>13.30617142857143</v>
@@ -8750,7 +13389,7 @@
         <v>0.26905857142857142</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>896.85980952380964</v>
@@ -10145,19 +14784,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -10174,7 +14813,7 @@
         <v>0.13452900000000001</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>5.7678857142857147</v>
@@ -10194,7 +14833,7 @@
         <v>0.26905857142857142</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>896.85980952380964</v>
@@ -11589,19 +16228,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -11618,7 +16257,7 @@
         <v>0.1345732857142857</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>5.9739571428571434</v>
@@ -11638,7 +16277,7 @@
         <v>0.26914714285714292</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>897.15441269841267</v>
@@ -13014,6 +17653,2894 @@
       </c>
       <c r="D101">
         <v>-1.917857142857143E-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B2">
+        <v>9.36172</v>
+      </c>
+      <c r="C2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D2">
+        <v>0.1337388571428571</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>8.1854285714285719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.03</v>
+      </c>
+      <c r="B3">
+        <v>18.723400000000002</v>
+      </c>
+      <c r="C3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D3">
+        <v>0.26747714285714291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>891.59288888888887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B4">
+        <v>28.0852</v>
+      </c>
+      <c r="C4">
+        <v>4.4999999999999988E-4</v>
+      </c>
+      <c r="D4">
+        <v>0.40121714285714288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.06</v>
+      </c>
+      <c r="B5">
+        <v>37.446899999999999</v>
+      </c>
+      <c r="C5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D5">
+        <v>0.53495571428571431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B6">
+        <v>46.808599999999998</v>
+      </c>
+      <c r="C6">
+        <v>7.4999999999999991E-4</v>
+      </c>
+      <c r="D6">
+        <v>0.66869428571428569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.09</v>
+      </c>
+      <c r="B7">
+        <v>56.170299999999997</v>
+      </c>
+      <c r="C7">
+        <v>8.9999999999999987E-4</v>
+      </c>
+      <c r="D7">
+        <v>0.80243285714285706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.105</v>
+      </c>
+      <c r="B8">
+        <v>65.5321</v>
+      </c>
+      <c r="C8">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>0.93617285714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0.12</v>
+      </c>
+      <c r="B9">
+        <v>74.893799999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.0699114285714291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B10">
+        <v>84.255499999999998</v>
+      </c>
+      <c r="C10">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.2036500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.15</v>
+      </c>
+      <c r="B11">
+        <v>93.617199999999997</v>
+      </c>
+      <c r="C11">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.3373885714285709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="B12">
+        <v>102.979</v>
+      </c>
+      <c r="C12">
+        <v>1.65E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.4711285714285709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0.18</v>
+      </c>
+      <c r="B13">
+        <v>112.34099999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.6048714285714289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="B14">
+        <v>121.702</v>
+      </c>
+      <c r="C14">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.7385999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>0.21</v>
+      </c>
+      <c r="B15">
+        <v>131.06399999999999</v>
+      </c>
+      <c r="C15">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.8723428571428571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B16">
+        <v>140.42599999999999</v>
+      </c>
+      <c r="C16">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="D16">
+        <v>2.0060857142857138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>0.24</v>
+      </c>
+      <c r="B17">
+        <v>149.78800000000001</v>
+      </c>
+      <c r="C17">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D17">
+        <v>2.1398285714285721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>0.255</v>
+      </c>
+      <c r="B18">
+        <v>159.149</v>
+      </c>
+      <c r="C18">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="D18">
+        <v>2.2735571428571428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>0.27</v>
+      </c>
+      <c r="B19">
+        <v>168.511</v>
+      </c>
+      <c r="C19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>2.4073000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="B20">
+        <v>177.87299999999999</v>
+      </c>
+      <c r="C20">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>2.5410428571428572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>0.3</v>
+      </c>
+      <c r="B21">
+        <v>187.23400000000001</v>
+      </c>
+      <c r="C21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>2.6747714285714288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0.315</v>
+      </c>
+      <c r="B22">
+        <v>196.596</v>
+      </c>
+      <c r="C22">
+        <v>3.15E-3</v>
+      </c>
+      <c r="D22">
+        <v>2.8085142857142862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0.33</v>
+      </c>
+      <c r="B23">
+        <v>205.958</v>
+      </c>
+      <c r="C23">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D23">
+        <v>2.9422571428571431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="B24">
+        <v>215.32</v>
+      </c>
+      <c r="C24">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>3.0760000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>0.36</v>
+      </c>
+      <c r="B25">
+        <v>224.68100000000001</v>
+      </c>
+      <c r="C25">
+        <v>3.599999999999999E-3</v>
+      </c>
+      <c r="D25">
+        <v>3.2097285714285722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>0.375</v>
+      </c>
+      <c r="B26">
+        <v>234.04300000000001</v>
+      </c>
+      <c r="C26">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="D26">
+        <v>3.3434714285714291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>0.39</v>
+      </c>
+      <c r="B27">
+        <v>243.405</v>
+      </c>
+      <c r="C27">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D27">
+        <v>3.477214285714286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="B28">
+        <v>252.767</v>
+      </c>
+      <c r="C28">
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="D28">
+        <v>3.610957142857143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>0.42</v>
+      </c>
+      <c r="B29">
+        <v>262.12799999999999</v>
+      </c>
+      <c r="C29">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D29">
+        <v>3.7446857142857142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>0.435</v>
+      </c>
+      <c r="B30">
+        <v>271.49</v>
+      </c>
+      <c r="C30">
+        <v>4.3499999999999997E-3</v>
+      </c>
+      <c r="D30">
+        <v>3.878428571428572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>0.45</v>
+      </c>
+      <c r="B31">
+        <v>280.85199999999998</v>
+      </c>
+      <c r="C31">
+        <v>4.5000000000000014E-3</v>
+      </c>
+      <c r="D31">
+        <v>4.0121714285714276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="B32">
+        <v>290.21300000000002</v>
+      </c>
+      <c r="C32">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="D32">
+        <v>4.1459000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>0.48</v>
+      </c>
+      <c r="B33">
+        <v>299.57499999999999</v>
+      </c>
+      <c r="C33">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D33">
+        <v>4.2796428571428571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>0.495</v>
+      </c>
+      <c r="B34">
+        <v>308.93700000000001</v>
+      </c>
+      <c r="C34">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="D34">
+        <v>4.413385714285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>0.51</v>
+      </c>
+      <c r="B35">
+        <v>318.29899999999998</v>
+      </c>
+      <c r="C35">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D35">
+        <v>4.547128571428571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B36">
+        <v>327.66000000000003</v>
+      </c>
+      <c r="C36">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="D36">
+        <v>4.6808571428571426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>0.54</v>
+      </c>
+      <c r="B37">
+        <v>337.02199999999999</v>
+      </c>
+      <c r="C37">
+        <v>5.3999999999999994E-3</v>
+      </c>
+      <c r="D37">
+        <v>4.8146000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="B38">
+        <v>346.38400000000001</v>
+      </c>
+      <c r="C38">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="D38">
+        <v>4.9483428571428574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B39">
+        <v>355.74599999999998</v>
+      </c>
+      <c r="C39">
+        <v>5.6999999999999993E-3</v>
+      </c>
+      <c r="D39">
+        <v>5.0820857142857143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="B40">
+        <v>365.10700000000003</v>
+      </c>
+      <c r="C40">
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="D40">
+        <v>5.215814285714286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>0.6</v>
+      </c>
+      <c r="B41">
+        <v>374.46899999999999</v>
+      </c>
+      <c r="C41">
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="D41">
+        <v>5.3495571428571429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="B42">
+        <v>383.83100000000002</v>
+      </c>
+      <c r="C42">
+        <v>6.1499999999999992E-3</v>
+      </c>
+      <c r="D42">
+        <v>5.4832999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>0.63</v>
+      </c>
+      <c r="B43">
+        <v>393.19200000000001</v>
+      </c>
+      <c r="C43">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D43">
+        <v>5.6170285714285706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="B44">
+        <v>402.55399999999997</v>
+      </c>
+      <c r="C44">
+        <v>6.45E-3</v>
+      </c>
+      <c r="D44">
+        <v>5.7507714285714284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>0.66</v>
+      </c>
+      <c r="B45">
+        <v>411.916</v>
+      </c>
+      <c r="C45">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D45">
+        <v>5.8845142857142854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B46">
+        <v>421.27800000000002</v>
+      </c>
+      <c r="C46">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="D46">
+        <v>6.0182571428571432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>0.69</v>
+      </c>
+      <c r="B47">
+        <v>430.63900000000001</v>
+      </c>
+      <c r="C47">
+        <v>6.899999999999999E-3</v>
+      </c>
+      <c r="D47">
+        <v>6.1519857142857148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="B48">
+        <v>440.00099999999998</v>
+      </c>
+      <c r="C48">
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="D48">
+        <v>6.2857285714285709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>0.72</v>
+      </c>
+      <c r="B49">
+        <v>449.363</v>
+      </c>
+      <c r="C49">
+        <v>7.1999999999999989E-3</v>
+      </c>
+      <c r="D49">
+        <v>6.4194714285714287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="B50">
+        <v>458.72399999999999</v>
+      </c>
+      <c r="C50">
+        <v>7.3499999999999998E-3</v>
+      </c>
+      <c r="D50">
+        <v>6.5531999999999986</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>0.75</v>
+      </c>
+      <c r="B51">
+        <v>468.08600000000001</v>
+      </c>
+      <c r="C51">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D51">
+        <v>6.6869428571428573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="B52">
+        <v>477.44799999999998</v>
+      </c>
+      <c r="C52">
+        <v>7.6500000000000014E-3</v>
+      </c>
+      <c r="D52">
+        <v>6.8206857142857142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>0.78</v>
+      </c>
+      <c r="B53">
+        <v>486.81</v>
+      </c>
+      <c r="C53">
+        <v>7.8000000000000014E-3</v>
+      </c>
+      <c r="D53">
+        <v>6.9544285714285712</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="B54">
+        <v>496.17099999999999</v>
+      </c>
+      <c r="C54">
+        <v>7.9500000000000005E-3</v>
+      </c>
+      <c r="D54">
+        <v>7.0881571428571428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>0.81</v>
+      </c>
+      <c r="B55">
+        <v>505.53300000000002</v>
+      </c>
+      <c r="C55">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D55">
+        <v>7.2219000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="B56">
+        <v>514.89499999999998</v>
+      </c>
+      <c r="C56">
+        <v>8.2499999999999987E-3</v>
+      </c>
+      <c r="D56">
+        <v>7.3556428571428567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>0.84</v>
+      </c>
+      <c r="B57">
+        <v>524.25699999999995</v>
+      </c>
+      <c r="C57">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D57">
+        <v>7.4893857142857136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="B58">
+        <v>533.61800000000005</v>
+      </c>
+      <c r="C58">
+        <v>8.5499999999999986E-3</v>
+      </c>
+      <c r="D58">
+        <v>7.6231142857142862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>0.87</v>
+      </c>
+      <c r="B59">
+        <v>542.98</v>
+      </c>
+      <c r="C59">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D59">
+        <v>7.7568571428571431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="B60">
+        <v>552.34199999999998</v>
+      </c>
+      <c r="C60">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="D60">
+        <v>7.8906000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>0.9</v>
+      </c>
+      <c r="B61">
+        <v>560.92499999999995</v>
+      </c>
+      <c r="C61">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="D61">
+        <v>8.0132142857142856</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="B62">
+        <v>568.39599999999996</v>
+      </c>
+      <c r="C62">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="D62">
+        <v>8.1199428571428562</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>0.93</v>
+      </c>
+      <c r="B63">
+        <v>572.98</v>
+      </c>
+      <c r="C63">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="D63">
+        <v>8.1854285714285719</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="B64">
+        <v>572.12599999999998</v>
+      </c>
+      <c r="C64">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="D64">
+        <v>8.173228571428572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>0.96</v>
+      </c>
+      <c r="B65">
+        <v>417.78199999999998</v>
+      </c>
+      <c r="C65">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D65">
+        <v>5.9683142857142846</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B66">
+        <v>33.333799999999997</v>
+      </c>
+      <c r="C66">
+        <v>9.7499999999999983E-3</v>
+      </c>
+      <c r="D66">
+        <v>0.47619714285714282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>0.99</v>
+      </c>
+      <c r="B67">
+        <v>1.2377</v>
+      </c>
+      <c r="C67">
+        <v>9.8999999999999991E-3</v>
+      </c>
+      <c r="D67">
+        <v>1.768142857142857E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="B68">
+        <v>1.21269</v>
+      </c>
+      <c r="C68">
+        <v>1.005E-2</v>
+      </c>
+      <c r="D68">
+        <v>1.7324142857142861E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>1.02</v>
+      </c>
+      <c r="B69">
+        <v>1.2023200000000001</v>
+      </c>
+      <c r="C69">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D69">
+        <v>1.7176E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="B70">
+        <v>1.22</v>
+      </c>
+      <c r="C70">
+        <v>1.035E-2</v>
+      </c>
+      <c r="D70">
+        <v>1.7428571428571429E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>1.05</v>
+      </c>
+      <c r="B71">
+        <v>1.2376799999999999</v>
+      </c>
+      <c r="C71">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D71">
+        <v>1.7681142857142861E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="B72">
+        <v>1.25536</v>
+      </c>
+      <c r="C72">
+        <v>1.065E-2</v>
+      </c>
+      <c r="D72">
+        <v>1.7933714285714289E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>1.08</v>
+      </c>
+      <c r="B73">
+        <v>1.2730399999999999</v>
+      </c>
+      <c r="C73">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D73">
+        <v>1.818628571428571E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>1.095</v>
+      </c>
+      <c r="B74">
+        <v>1.2907200000000001</v>
+      </c>
+      <c r="C74">
+        <v>1.095E-2</v>
+      </c>
+      <c r="D74">
+        <v>1.8438857142857149E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B75">
+        <v>1.3084</v>
+      </c>
+      <c r="C75">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D75">
+        <v>1.8691428571428571E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1.125</v>
+      </c>
+      <c r="B76">
+        <v>1.3260799999999999</v>
+      </c>
+      <c r="C76">
+        <v>1.125E-2</v>
+      </c>
+      <c r="D76">
+        <v>1.8943999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B77">
+        <v>1.3437600000000001</v>
+      </c>
+      <c r="C77">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D77">
+        <v>1.9196571428571431E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1.155</v>
+      </c>
+      <c r="B78">
+        <v>1.36145</v>
+      </c>
+      <c r="C78">
+        <v>1.155E-2</v>
+      </c>
+      <c r="D78">
+        <v>1.9449285714285711E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1.17</v>
+      </c>
+      <c r="B79">
+        <v>1.37913</v>
+      </c>
+      <c r="C79">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D79">
+        <v>1.9701857142857139E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="B80">
+        <v>1.3968100000000001</v>
+      </c>
+      <c r="C80">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="D80">
+        <v>1.9954428571428571E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1.2</v>
+      </c>
+      <c r="B81">
+        <v>1.41449</v>
+      </c>
+      <c r="C81">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D81">
+        <v>2.0206999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="B82">
+        <v>1.4321699999999999</v>
+      </c>
+      <c r="C82">
+        <v>1.2149999999999999E-2</v>
+      </c>
+      <c r="D82">
+        <v>2.0459571428571431E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1.23</v>
+      </c>
+      <c r="B83">
+        <v>1.4498500000000001</v>
+      </c>
+      <c r="C83">
+        <v>1.23E-2</v>
+      </c>
+      <c r="D83">
+        <v>2.071214285714286E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="B84">
+        <v>1.46753</v>
+      </c>
+      <c r="C84">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="D84">
+        <v>2.0964714285714281E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1.26</v>
+      </c>
+      <c r="B85">
+        <v>1.4852099999999999</v>
+      </c>
+      <c r="C85">
+        <v>1.26E-2</v>
+      </c>
+      <c r="D85">
+        <v>2.1217285714285709E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="B86">
+        <v>1.5028900000000001</v>
+      </c>
+      <c r="C86">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="D86">
+        <v>2.1469857142857141E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1.29</v>
+      </c>
+      <c r="B87">
+        <v>1.52058</v>
+      </c>
+      <c r="C87">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D87">
+        <v>2.1722571428571431E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="B88">
+        <v>1.53826</v>
+      </c>
+      <c r="C88">
+        <v>1.3050000000000001E-2</v>
+      </c>
+      <c r="D88">
+        <v>2.197514285714286E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1.32</v>
+      </c>
+      <c r="B89">
+        <v>1.5559400000000001</v>
+      </c>
+      <c r="C89">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D89">
+        <v>2.2227714285714292E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1.335</v>
+      </c>
+      <c r="B90">
+        <v>1.57362</v>
+      </c>
+      <c r="C90">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="D90">
+        <v>2.248028571428571E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1.35</v>
+      </c>
+      <c r="B91">
+        <v>1.5912999999999999</v>
+      </c>
+      <c r="C91">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D91">
+        <v>2.2732857142857141E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1.365</v>
+      </c>
+      <c r="B92">
+        <v>1.6089800000000001</v>
+      </c>
+      <c r="C92">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="D92">
+        <v>2.298542857142857E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1.38</v>
+      </c>
+      <c r="B93">
+        <v>1.62666</v>
+      </c>
+      <c r="C93">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D93">
+        <v>2.3238000000000002E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1.395</v>
+      </c>
+      <c r="B94">
+        <v>1.6443399999999999</v>
+      </c>
+      <c r="C94">
+        <v>1.3950000000000001E-2</v>
+      </c>
+      <c r="D94">
+        <v>2.349057142857143E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1.41</v>
+      </c>
+      <c r="B95">
+        <v>1.6620200000000001</v>
+      </c>
+      <c r="C95">
+        <v>1.41E-2</v>
+      </c>
+      <c r="D95">
+        <v>2.3743142857142858E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1.425</v>
+      </c>
+      <c r="B96">
+        <v>1.6797</v>
+      </c>
+      <c r="C96">
+        <v>1.4250000000000001E-2</v>
+      </c>
+      <c r="D96">
+        <v>2.399571428571429E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>1.44</v>
+      </c>
+      <c r="B97">
+        <v>1.69739</v>
+      </c>
+      <c r="C97">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D97">
+        <v>2.424842857142857E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="B98">
+        <v>1.7150700000000001</v>
+      </c>
+      <c r="C98">
+        <v>1.455E-2</v>
+      </c>
+      <c r="D98">
+        <v>2.4500999999999998E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>1.47</v>
+      </c>
+      <c r="B99">
+        <v>1.73275</v>
+      </c>
+      <c r="C99">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D99">
+        <v>2.475357142857143E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="B100">
+        <v>1.7504299999999999</v>
+      </c>
+      <c r="C100">
+        <v>1.485E-2</v>
+      </c>
+      <c r="D100">
+        <v>2.5006142857142859E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>1.5</v>
+      </c>
+      <c r="B101">
+        <v>1.7681100000000001</v>
+      </c>
+      <c r="C101">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D101">
+        <v>2.5258714285714291E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B2">
+        <v>21.1038</v>
+      </c>
+      <c r="C2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D2">
+        <v>0.30148285714285722</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>8.9156571428571425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.03</v>
+      </c>
+      <c r="B3">
+        <v>42.207500000000003</v>
+      </c>
+      <c r="C3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D3">
+        <v>0.60296428571428573</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>2009.882063492063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B4">
+        <v>63.311300000000003</v>
+      </c>
+      <c r="C4">
+        <v>4.4999999999999988E-4</v>
+      </c>
+      <c r="D4">
+        <v>0.90444714285714289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0.06</v>
+      </c>
+      <c r="B5">
+        <v>84.415000000000006</v>
+      </c>
+      <c r="C5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D5">
+        <v>1.205928571428571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B6">
+        <v>105.51900000000001</v>
+      </c>
+      <c r="C6">
+        <v>7.4999999999999991E-4</v>
+      </c>
+      <c r="D6">
+        <v>1.507414285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0.09</v>
+      </c>
+      <c r="B7">
+        <v>126.623</v>
+      </c>
+      <c r="C7">
+        <v>8.9999999999999987E-4</v>
+      </c>
+      <c r="D7">
+        <v>1.8089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0.105</v>
+      </c>
+      <c r="B8">
+        <v>147.726</v>
+      </c>
+      <c r="C8">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>2.1103714285714279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0.12</v>
+      </c>
+      <c r="B9">
+        <v>168.83</v>
+      </c>
+      <c r="C9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>2.4118571428571429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="B10">
+        <v>189.934</v>
+      </c>
+      <c r="C10">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>2.7133428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0.15</v>
+      </c>
+      <c r="B11">
+        <v>211.03800000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D11">
+        <v>3.0148285714285721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="B12">
+        <v>232.14099999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.65E-3</v>
+      </c>
+      <c r="D12">
+        <v>3.3163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>0.18</v>
+      </c>
+      <c r="B13">
+        <v>253.245</v>
+      </c>
+      <c r="C13">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D13">
+        <v>3.6177857142857142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="B14">
+        <v>274.34899999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>3.9192714285714279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>0.21</v>
+      </c>
+      <c r="B15">
+        <v>295.45299999999997</v>
+      </c>
+      <c r="C15">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D15">
+        <v>4.2207571428571429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="B16">
+        <v>316.55599999999998</v>
+      </c>
+      <c r="C16">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="D16">
+        <v>4.5222285714285713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>0.24</v>
+      </c>
+      <c r="B17">
+        <v>337.66</v>
+      </c>
+      <c r="C17">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D17">
+        <v>4.8237142857142858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>0.255</v>
+      </c>
+      <c r="B18">
+        <v>358.76400000000001</v>
+      </c>
+      <c r="C18">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="D18">
+        <v>5.1252000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>0.27</v>
+      </c>
+      <c r="B19">
+        <v>379.86799999999999</v>
+      </c>
+      <c r="C19">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>5.4266857142857141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="B20">
+        <v>400.971</v>
+      </c>
+      <c r="C20">
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>5.7281571428571434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>0.3</v>
+      </c>
+      <c r="B21">
+        <v>422.07499999999999</v>
+      </c>
+      <c r="C21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.0296428571428571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0.315</v>
+      </c>
+      <c r="B22">
+        <v>443.17899999999997</v>
+      </c>
+      <c r="C22">
+        <v>3.15E-3</v>
+      </c>
+      <c r="D22">
+        <v>6.3311285714285708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0.33</v>
+      </c>
+      <c r="B23">
+        <v>464.28300000000002</v>
+      </c>
+      <c r="C23">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D23">
+        <v>6.6326142857142862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="B24">
+        <v>485.387</v>
+      </c>
+      <c r="C24">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="D24">
+        <v>6.9340999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>0.36</v>
+      </c>
+      <c r="B25">
+        <v>506.49</v>
+      </c>
+      <c r="C25">
+        <v>3.599999999999999E-3</v>
+      </c>
+      <c r="D25">
+        <v>7.2355714285714283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>0.375</v>
+      </c>
+      <c r="B26">
+        <v>527.59400000000005</v>
+      </c>
+      <c r="C26">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="D26">
+        <v>7.5370571428571438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>0.39</v>
+      </c>
+      <c r="B27">
+        <v>548.69799999999998</v>
+      </c>
+      <c r="C27">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D27">
+        <v>7.8385428571428566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="B28">
+        <v>569.80200000000002</v>
+      </c>
+      <c r="C28">
+        <v>4.0499999999999998E-3</v>
+      </c>
+      <c r="D28">
+        <v>8.1400285714285712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>0.42</v>
+      </c>
+      <c r="B29">
+        <v>590.09400000000005</v>
+      </c>
+      <c r="C29">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D29">
+        <v>8.4299142857142861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>0.435</v>
+      </c>
+      <c r="B30">
+        <v>609.14200000000005</v>
+      </c>
+      <c r="C30">
+        <v>4.3499999999999997E-3</v>
+      </c>
+      <c r="D30">
+        <v>8.7020285714285723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>0.45</v>
+      </c>
+      <c r="B31">
+        <v>624.096</v>
+      </c>
+      <c r="C31">
+        <v>4.5000000000000014E-3</v>
+      </c>
+      <c r="D31">
+        <v>8.9156571428571425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="B32">
+        <v>600.36699999999996</v>
+      </c>
+      <c r="C32">
+        <v>4.6499999999999996E-3</v>
+      </c>
+      <c r="D32">
+        <v>8.5766714285714283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>0.48</v>
+      </c>
+      <c r="B33">
+        <v>82.439499999999995</v>
+      </c>
+      <c r="C33">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.1777071428571431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>0.495</v>
+      </c>
+      <c r="B34">
+        <v>6.5177300000000002</v>
+      </c>
+      <c r="C34">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="D34">
+        <v>9.311042857142858E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>0.51</v>
+      </c>
+      <c r="B35">
+        <v>0.27039000000000002</v>
+      </c>
+      <c r="C35">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D35">
+        <v>3.8627142857142862E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B36">
+        <v>0.26998100000000003</v>
+      </c>
+      <c r="C36">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="D36">
+        <v>3.8568714285714292E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>0.54</v>
+      </c>
+      <c r="B37">
+        <v>0.27768300000000001</v>
+      </c>
+      <c r="C37">
+        <v>5.3999999999999994E-3</v>
+      </c>
+      <c r="D37">
+        <v>3.9668999999999998E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="B38">
+        <v>0.28539599999999998</v>
+      </c>
+      <c r="C38">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="D38">
+        <v>4.0770857142857142E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B39">
+        <v>0.29310999999999998</v>
+      </c>
+      <c r="C39">
+        <v>5.6999999999999993E-3</v>
+      </c>
+      <c r="D39">
+        <v>4.1872857142857137E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="B40">
+        <v>0.30082300000000001</v>
+      </c>
+      <c r="C40">
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="D40">
+        <v>4.297471428571429E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>0.6</v>
+      </c>
+      <c r="B41">
+        <v>0.30853599999999998</v>
+      </c>
+      <c r="C41">
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="D41">
+        <v>4.4076571428571434E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="B42">
+        <v>0.31624999999999998</v>
+      </c>
+      <c r="C42">
+        <v>6.1499999999999992E-3</v>
+      </c>
+      <c r="D42">
+        <v>4.5178571428571429E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>0.63</v>
+      </c>
+      <c r="B43">
+        <v>0.323963</v>
+      </c>
+      <c r="C43">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D43">
+        <v>4.6280428571428573E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="B44">
+        <v>0.331677</v>
+      </c>
+      <c r="C44">
+        <v>6.45E-3</v>
+      </c>
+      <c r="D44">
+        <v>4.7382428571428568E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>0.66</v>
+      </c>
+      <c r="B45">
+        <v>0.33939000000000002</v>
+      </c>
+      <c r="C45">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D45">
+        <v>4.8484285714285721E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B46">
+        <v>0.34710299999999999</v>
+      </c>
+      <c r="C46">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="D46">
+        <v>4.9586142857142856E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>0.69</v>
+      </c>
+      <c r="B47">
+        <v>0.35481699999999999</v>
+      </c>
+      <c r="C47">
+        <v>6.899999999999999E-3</v>
+      </c>
+      <c r="D47">
+        <v>5.068814285714286E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="B48">
+        <v>0.36253000000000002</v>
+      </c>
+      <c r="C48">
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="D48">
+        <v>5.1789999999999996E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>0.72</v>
+      </c>
+      <c r="B49">
+        <v>0.37024400000000002</v>
+      </c>
+      <c r="C49">
+        <v>7.1999999999999989E-3</v>
+      </c>
+      <c r="D49">
+        <v>5.2892E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="B50">
+        <v>0.37795699999999999</v>
+      </c>
+      <c r="C50">
+        <v>7.3499999999999998E-3</v>
+      </c>
+      <c r="D50">
+        <v>5.3993857142857144E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>0.75</v>
+      </c>
+      <c r="B51">
+        <v>0.38567000000000001</v>
+      </c>
+      <c r="C51">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D51">
+        <v>5.5095714285714288E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="B52">
+        <v>0.39338400000000001</v>
+      </c>
+      <c r="C52">
+        <v>7.6500000000000014E-3</v>
+      </c>
+      <c r="D52">
+        <v>5.6197714285714283E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>0.78</v>
+      </c>
+      <c r="B53">
+        <v>0.40109699999999998</v>
+      </c>
+      <c r="C53">
+        <v>7.8000000000000014E-3</v>
+      </c>
+      <c r="D53">
+        <v>5.7299571428571427E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="B54">
+        <v>0.40881099999999998</v>
+      </c>
+      <c r="C54">
+        <v>7.9500000000000005E-3</v>
+      </c>
+      <c r="D54">
+        <v>5.8401571428571422E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>0.81</v>
+      </c>
+      <c r="B55">
+        <v>0.41652400000000001</v>
+      </c>
+      <c r="C55">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D55">
+        <v>5.9503428571428584E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="B56">
+        <v>0.42423699999999998</v>
+      </c>
+      <c r="C56">
+        <v>8.2499999999999987E-3</v>
+      </c>
+      <c r="D56">
+        <v>6.060528571428571E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>0.84</v>
+      </c>
+      <c r="B57">
+        <v>0.43195099999999997</v>
+      </c>
+      <c r="C57">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D57">
+        <v>6.1707285714285706E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="B58">
+        <v>0.439664</v>
+      </c>
+      <c r="C58">
+        <v>8.5499999999999986E-3</v>
+      </c>
+      <c r="D58">
+        <v>6.2809142857142859E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>0.87</v>
+      </c>
+      <c r="B59">
+        <v>0.447378</v>
+      </c>
+      <c r="C59">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D59">
+        <v>6.3911142857142854E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="B60">
+        <v>0.45509100000000002</v>
+      </c>
+      <c r="C60">
+        <v>8.8500000000000002E-3</v>
+      </c>
+      <c r="D60">
+        <v>6.5013000000000007E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>0.9</v>
+      </c>
+      <c r="B61">
+        <v>0.46280500000000002</v>
+      </c>
+      <c r="C61">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="D61">
+        <v>6.6115000000000002E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="B62">
+        <v>0.47051799999999999</v>
+      </c>
+      <c r="C62">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="D62">
+        <v>6.7216857142857146E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>0.93</v>
+      </c>
+      <c r="B63">
+        <v>0.47823100000000002</v>
+      </c>
+      <c r="C63">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="D63">
+        <v>6.831871428571429E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="B64">
+        <v>0.48594500000000002</v>
+      </c>
+      <c r="C64">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="D64">
+        <v>6.9420714285714294E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>0.96</v>
+      </c>
+      <c r="B65">
+        <v>0.49365799999999999</v>
+      </c>
+      <c r="C65">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D65">
+        <v>7.0522571428571429E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B66">
+        <v>0.50137200000000004</v>
+      </c>
+      <c r="C66">
+        <v>9.7499999999999983E-3</v>
+      </c>
+      <c r="D66">
+        <v>7.1624571428571433E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>0.99</v>
+      </c>
+      <c r="B67">
+        <v>0.50908500000000001</v>
+      </c>
+      <c r="C67">
+        <v>9.8999999999999991E-3</v>
+      </c>
+      <c r="D67">
+        <v>7.2726428571428569E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="B68">
+        <v>0.51679799999999998</v>
+      </c>
+      <c r="C68">
+        <v>1.005E-2</v>
+      </c>
+      <c r="D68">
+        <v>7.3828285714285713E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>1.02</v>
+      </c>
+      <c r="B69">
+        <v>0.52451199999999998</v>
+      </c>
+      <c r="C69">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D69">
+        <v>7.4930285714285708E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="B70">
+        <v>0.53222499999999995</v>
+      </c>
+      <c r="C70">
+        <v>1.035E-2</v>
+      </c>
+      <c r="D70">
+        <v>7.6032142857142852E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>1.05</v>
+      </c>
+      <c r="B71">
+        <v>0.53993899999999995</v>
+      </c>
+      <c r="C71">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D71">
+        <v>7.7134142857142847E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="B72">
+        <v>0.54765200000000003</v>
+      </c>
+      <c r="C72">
+        <v>1.065E-2</v>
+      </c>
+      <c r="D72">
+        <v>7.8236E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>1.08</v>
+      </c>
+      <c r="B73">
+        <v>0.555365</v>
+      </c>
+      <c r="C73">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D73">
+        <v>7.9337857142857144E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>1.095</v>
+      </c>
+      <c r="B74">
+        <v>0.563079</v>
+      </c>
+      <c r="C74">
+        <v>1.095E-2</v>
+      </c>
+      <c r="D74">
+        <v>8.0439857142857139E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B75">
+        <v>0.57079199999999997</v>
+      </c>
+      <c r="C75">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D75">
+        <v>8.1541714285714283E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>1.125</v>
+      </c>
+      <c r="B76">
+        <v>0.57850599999999996</v>
+      </c>
+      <c r="C76">
+        <v>1.125E-2</v>
+      </c>
+      <c r="D76">
+        <v>8.2643714285714279E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B77">
+        <v>0.58621900000000005</v>
+      </c>
+      <c r="C77">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D77">
+        <v>8.374557142857144E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>1.155</v>
+      </c>
+      <c r="B78">
+        <v>0.59393200000000002</v>
+      </c>
+      <c r="C78">
+        <v>1.155E-2</v>
+      </c>
+      <c r="D78">
+        <v>8.4847428571428567E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>1.17</v>
+      </c>
+      <c r="B79">
+        <v>0.60164600000000001</v>
+      </c>
+      <c r="C79">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D79">
+        <v>8.5949428571428579E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="B80">
+        <v>0.60935899999999998</v>
+      </c>
+      <c r="C80">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="D80">
+        <v>8.7051285714285706E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>1.2</v>
+      </c>
+      <c r="B81">
+        <v>0.61707299999999998</v>
+      </c>
+      <c r="C81">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D81">
+        <v>8.8153285714285719E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="B82">
+        <v>0.62478599999999995</v>
+      </c>
+      <c r="C82">
+        <v>1.2149999999999999E-2</v>
+      </c>
+      <c r="D82">
+        <v>8.9255142857142845E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>1.23</v>
+      </c>
+      <c r="B83">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="C83">
+        <v>1.23E-2</v>
+      </c>
+      <c r="D83">
+        <v>9.0357142857142858E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.64021300000000003</v>
+      </c>
+      <c r="C84">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="D84">
+        <v>9.1459000000000002E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>1.26</v>
+      </c>
+      <c r="B85">
+        <v>0.647926</v>
+      </c>
+      <c r="C85">
+        <v>1.26E-2</v>
+      </c>
+      <c r="D85">
+        <v>9.2560857142857146E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="B86">
+        <v>0.65564</v>
+      </c>
+      <c r="C86">
+        <v>1.2749999999999999E-2</v>
+      </c>
+      <c r="D86">
+        <v>9.3662857142857141E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>1.29</v>
+      </c>
+      <c r="B87">
+        <v>0.66335299999999997</v>
+      </c>
+      <c r="C87">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D87">
+        <v>9.4764714285714285E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="B88">
+        <v>0.67106699999999997</v>
+      </c>
+      <c r="C88">
+        <v>1.3050000000000001E-2</v>
+      </c>
+      <c r="D88">
+        <v>9.5866714285714281E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>1.32</v>
+      </c>
+      <c r="B89">
+        <v>0.67878000000000005</v>
+      </c>
+      <c r="C89">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D89">
+        <v>9.6968571428571442E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1.335</v>
+      </c>
+      <c r="B90">
+        <v>0.68649300000000002</v>
+      </c>
+      <c r="C90">
+        <v>1.3350000000000001E-2</v>
+      </c>
+      <c r="D90">
+        <v>9.8070428571428569E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>1.35</v>
+      </c>
+      <c r="B91">
+        <v>0.69420700000000002</v>
+      </c>
+      <c r="C91">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D91">
+        <v>9.9172428571428582E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>1.365</v>
+      </c>
+      <c r="B92">
+        <v>0.70191999999999999</v>
+      </c>
+      <c r="C92">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="D92">
+        <v>1.0027428571428571E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>1.38</v>
+      </c>
+      <c r="B93">
+        <v>0.70963399999999999</v>
+      </c>
+      <c r="C93">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D93">
+        <v>1.013762857142857E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>1.395</v>
+      </c>
+      <c r="B94">
+        <v>0.71734699999999996</v>
+      </c>
+      <c r="C94">
+        <v>1.3950000000000001E-2</v>
+      </c>
+      <c r="D94">
+        <v>1.024781428571428E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>1.41</v>
+      </c>
+      <c r="B95">
+        <v>0.72331699999999999</v>
+      </c>
+      <c r="C95">
+        <v>1.41E-2</v>
+      </c>
+      <c r="D95">
+        <v>1.03331E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>1.425</v>
+      </c>
+      <c r="B96">
+        <v>0.731012</v>
+      </c>
+      <c r="C96">
+        <v>1.4250000000000001E-2</v>
+      </c>
+      <c r="D96">
+        <v>1.0443028571428569E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>1.44</v>
+      </c>
+      <c r="B97">
+        <v>0.738707</v>
+      </c>
+      <c r="C97">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D97">
+        <v>1.0552957142857139E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="B98">
+        <v>0.74640200000000001</v>
+      </c>
+      <c r="C98">
+        <v>1.455E-2</v>
+      </c>
+      <c r="D98">
+        <v>1.0662885714285711E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>1.47</v>
+      </c>
+      <c r="B99">
+        <v>0.75409599999999999</v>
+      </c>
+      <c r="C99">
+        <v>1.47E-2</v>
+      </c>
+      <c r="D99">
+        <v>1.0772800000000001E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="B100">
+        <v>0.761791</v>
+      </c>
+      <c r="C100">
+        <v>1.485E-2</v>
+      </c>
+      <c r="D100">
+        <v>1.0882728571428571E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>1.5</v>
+      </c>
+      <c r="B101">
+        <v>0.769486</v>
+      </c>
+      <c r="C101">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D101">
+        <v>1.099265714285714E-2</v>
       </c>
     </row>
   </sheetData>
